--- a/08_Protect_Mode/05 P位和G位.xlsx
+++ b/08_Protect_Mode/05 P位和G位.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01109C1A-5FC3-480E-9981-907A87BD3BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98241495-FD5C-4C37-8F33-555D63ACD4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -704,6 +704,62 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DDA1FE-87AE-26BE-A183-8272C6C831C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2423160" y="1630680"/>
+          <a:ext cx="1318260" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1433,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909128B8-19CF-4435-B7F6-0F083999A2C7}">
   <dimension ref="A2:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>

--- a/08_Protect_Mode/05 P位和G位.xlsx
+++ b/08_Protect_Mode/05 P位和G位.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98241495-FD5C-4C37-8F33-555D63ACD4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3427A624-F4A0-4B33-AEEE-991E5EB0B026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,14 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G位 0，limit=0x000fffff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G位 1，limit=0xffffffff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>课后练习：</t>
   </si>
   <si>
@@ -388,6 +380,14 @@
   </si>
   <si>
     <t>base:  0x0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G位 0，limit=0x000fffff，单位 字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G位 1，limit=0xffffffff 单位4k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1490,7 +1490,7 @@
   <dimension ref="B3:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1525,12 +1525,12 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N12" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N13" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1582,27 +1582,27 @@
     </row>
     <row r="24" spans="13:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="M24" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="13:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="M25" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="13:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="M26" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="13:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="M27" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="13:18" x14ac:dyDescent="0.25">
       <c r="M28" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1631,32 +1631,32 @@
   <sheetData>
     <row r="2" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1667,12 +1667,12 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="M9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1694,15 +1694,15 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="M11" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="13" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
